--- a/000 AGENCIA INFORMACION DI/agencia_informacion.xlsx
+++ b/000 AGENCIA INFORMACION DI/agencia_informacion.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/Escritorio/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D47A0231-75CD-4081-B5EA-8AF4173E0062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="agencia_informacion" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -297,13 +291,19 @@
   </si>
   <si>
     <t>https://analytics.zoho.com/open-view/2395394000007718948</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>push hector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +382,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -395,7 +409,6 @@
         <sz val="7"/>
         <color theme="0"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -404,7 +417,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -414,20 +427,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -444,25 +443,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A62FD72-31C9-49E4-9088-4998C022961B}" name="Tabla1" displayName="Tabla1" ref="A1:P8" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:P8" xr:uid="{0A62FD72-31C9-49E4-9088-4998C022961B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:P8" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:P8"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{625C23FA-972A-4576-AC12-CB680070D11C}" name="id"/>
-    <tableColumn id="2" xr3:uid="{B983C317-1D87-4AA7-BB5C-013F8CB0738E}" name="coleccion"/>
-    <tableColumn id="3" xr3:uid="{F2515A80-56D0-4975-9C7E-4FBF0E09362C}" name="sector"/>
-    <tableColumn id="4" xr3:uid="{87B9A7DA-CB18-46BD-AAAF-C769BF85505A}" name="tema"/>
-    <tableColumn id="5" xr3:uid="{E31C8047-7645-4660-B5E2-06D55521CF72}" name="contenido"/>
-    <tableColumn id="6" xr3:uid="{CC058DCD-90D3-44AD-8DC4-B545030F341D}" name="pais"/>
-    <tableColumn id="7" xr3:uid="{31671BE9-C67F-4B31-A6D4-EB91A346D032}" name="escala"/>
-    <tableColumn id="8" xr3:uid="{58EFA43A-2081-4C79-B49E-93D9117A4101}" name="territorio"/>
-    <tableColumn id="9" xr3:uid="{EDD67A00-169C-4A0B-BFA0-C8F42AF30FCE}" name="temporalidad"/>
-    <tableColumn id="10" xr3:uid="{FD021E56-B2DE-475C-A107-415F458284DE}" name="unidad_medida"/>
-    <tableColumn id="11" xr3:uid="{C08C5722-1FED-4F0C-A186-EBECB82FC951}" name="fuente"/>
-    <tableColumn id="12" xr3:uid="{BFD50CBA-991C-4D0E-AE9C-693BF6CC3EC0}" name="titulo"/>
-    <tableColumn id="13" xr3:uid="{8C6E27FE-0E56-4260-9E0B-226402BB6032}" name="descripcion_larga"/>
-    <tableColumn id="14" xr3:uid="{F6AA99D7-7E4E-4C14-841D-56EB2F1A980A}" name="visualizacion"/>
-    <tableColumn id="15" xr3:uid="{A12FBC09-3530-4E62-9171-1B0317DD3B95}" name="tag"/>
-    <tableColumn id="16" xr3:uid="{8D079DF3-E9FE-44F3-89D3-46CC82E699A7}" name="url"/>
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="coleccion"/>
+    <tableColumn id="3" name="sector"/>
+    <tableColumn id="4" name="tema"/>
+    <tableColumn id="5" name="contenido"/>
+    <tableColumn id="6" name="pais"/>
+    <tableColumn id="7" name="escala"/>
+    <tableColumn id="8" name="territorio"/>
+    <tableColumn id="9" name="temporalidad"/>
+    <tableColumn id="10" name="unidad_medida"/>
+    <tableColumn id="11" name="fuente"/>
+    <tableColumn id="12" name="titulo"/>
+    <tableColumn id="13" name="descripcion_larga"/>
+    <tableColumn id="14" name="visualizacion"/>
+    <tableColumn id="15" name="tag"/>
+    <tableColumn id="16" name="url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -511,7 +510,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -543,27 +542,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,24 +576,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -788,14 +751,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
@@ -810,7 +773,7 @@
     <col min="15" max="15" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,7 +823,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
@@ -910,7 +873,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3">
         <f>+A2+1</f>
         <v>2</v>
@@ -961,7 +924,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4">
         <f t="shared" ref="A4:A7" si="0">+A3+1</f>
         <v>3</v>
@@ -1012,7 +975,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1063,7 +1026,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1114,7 +1077,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1165,9 +1128,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8">
-        <f t="shared" ref="A8" si="1">+A7+1</f>
+        <f t="shared" ref="A8:A9" si="1">+A7+1</f>
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1213,13 +1176,64 @@
         <v>76</v>
       </c>
       <c r="P8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P7" r:id="rId1" xr:uid="{74451529-CAE5-441A-8BE6-3A894F9F258E}"/>
-    <hyperlink ref="P2" r:id="rId2" xr:uid="{C1611DB2-3C5B-4F7D-B722-F89AEFEBBC3E}"/>
+    <hyperlink ref="P7" r:id="rId1"/>
+    <hyperlink ref="P2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1230,24 +1244,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/000 AGENCIA INFORMACION DI/agencia_informacion.xlsx
+++ b/000 AGENCIA INFORMACION DI/agencia_informacion.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\OneDrive\Documentos\GitHub\MONITOREO-DI\000 AGENCIA INFORMACION DI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C6C1B8-9138-4570-B421-DEC29671E8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="agencia_informacion" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -302,8 +297,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,7 +412,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -443,25 +438,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:P8" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:P8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:P8" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:P8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="coleccion"/>
-    <tableColumn id="3" name="sector"/>
-    <tableColumn id="4" name="tema"/>
-    <tableColumn id="5" name="contenido"/>
-    <tableColumn id="6" name="pais"/>
-    <tableColumn id="7" name="escala"/>
-    <tableColumn id="8" name="territorio"/>
-    <tableColumn id="9" name="temporalidad"/>
-    <tableColumn id="10" name="unidad_medida"/>
-    <tableColumn id="11" name="fuente"/>
-    <tableColumn id="12" name="titulo"/>
-    <tableColumn id="13" name="descripcion_larga"/>
-    <tableColumn id="14" name="visualizacion"/>
-    <tableColumn id="15" name="tag"/>
-    <tableColumn id="16" name="url"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="coleccion"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="sector"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="tema"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="contenido"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="pais"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="escala"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="territorio"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="temporalidad"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="unidad_medida"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="fuente"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="titulo"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="descripcion_larga"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="visualizacion"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="tag"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="url"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -510,7 +505,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,9 +537,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,6 +589,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -751,29 +782,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,7 +854,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -873,7 +904,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>+A2+1</f>
         <v>2</v>
@@ -924,7 +955,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A7" si="0">+A3+1</f>
         <v>3</v>
@@ -975,7 +1006,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1026,7 +1057,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1077,7 +1108,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1128,9 +1159,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" ref="A8:A9" si="1">+A7+1</f>
+        <f t="shared" ref="A8:A10" si="1">+A7+1</f>
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1179,7 +1210,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1230,10 +1261,60 @@
         <v>85</v>
       </c>
     </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P7" r:id="rId1"/>
-    <hyperlink ref="P2" r:id="rId2"/>
+    <hyperlink ref="P7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="P2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1244,24 +1325,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/000 AGENCIA INFORMACION DI/agencia_informacion.xlsx
+++ b/000 AGENCIA INFORMACION DI/agencia_informacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\OneDrive\Documentos\GitHub\MONITOREO-DI\000 AGENCIA INFORMACION DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C6C1B8-9138-4570-B421-DEC29671E8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D8BDCB-F267-4BE9-8EC8-9D13871E44BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -783,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" ref="A8:A10" si="1">+A7+1</f>
+        <f t="shared" ref="A8:A9" si="1">+A7+1</f>
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1308,6 +1308,56 @@
         <v>76</v>
       </c>
       <c r="P10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" t="s">
         <v>85</v>
       </c>
     </row>

--- a/000 AGENCIA INFORMACION DI/agencia_informacion.xlsx
+++ b/000 AGENCIA INFORMACION DI/agencia_informacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\OneDrive\Documentos\GitHub\MONITOREO-DI\000 AGENCIA INFORMACION DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D8BDCB-F267-4BE9-8EC8-9D13871E44BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6CF196-58B8-4D41-82CA-2F792A4D0B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="91">
   <si>
     <t>id</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>push hector</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -783,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,6 +1361,56 @@
         <v>76</v>
       </c>
       <c r="P11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" t="s">
         <v>85</v>
       </c>
     </row>

--- a/000 AGENCIA INFORMACION DI/agencia_informacion.xlsx
+++ b/000 AGENCIA INFORMACION DI/agencia_informacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hecto\OneDrive\Documentos\GitHub\MONITOREO-DI\000 AGENCIA INFORMACION DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6CF196-58B8-4D41-82CA-2F792A4D0B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B12984-2CA6-4A48-A517-965A0983FCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>pueba 2</t>
   </si>
 </sst>
 </file>
@@ -786,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,6 +1414,56 @@
         <v>76</v>
       </c>
       <c r="P12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s">
         <v>85</v>
       </c>
     </row>

--- a/000 AGENCIA INFORMACION DI/agencia_informacion.xlsx
+++ b/000 AGENCIA INFORMACION DI/agencia_informacion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\000 AGENCIA INFORMACION DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D47A0231-75CD-4081-B5EA-8AF4173E0062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6780C9-B3CC-447C-8C0C-6C3F42659527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="353">
   <si>
     <t>id</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Mujeres</t>
   </si>
   <si>
-    <t>Denuncias de Violaciones</t>
-  </si>
-  <si>
     <t>Violaciones</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>Educación</t>
   </si>
   <si>
-    <t>Ingresos por Persona</t>
-  </si>
-  <si>
     <t>Ingresos Regionales</t>
   </si>
   <si>
@@ -188,9 +182,6 @@
     <t>Número de Denuncias</t>
   </si>
   <si>
-    <t>CENTRO DE ESTUDIOS Y ANÁLISIS DEL DELITO (CEAD) DE LA SUBSECRETARÍA DE PREVENCIÓN DEL DELITO</t>
-  </si>
-  <si>
     <t>Distribución comunal de denuncias por violación en la región Metropolitana en el año 2020.</t>
   </si>
   <si>
@@ -203,9 +194,6 @@
     <t>región,metropolitana,comunas,violencia,mujer,violación denuncias</t>
   </si>
   <si>
-    <t>Ingresos Etnia Mapuche</t>
-  </si>
-  <si>
     <t>Ingresos por Etnia</t>
   </si>
   <si>
@@ -233,9 +221,6 @@
     <t>COVID-19</t>
   </si>
   <si>
-    <t>Casos Activos</t>
-  </si>
-  <si>
     <t>02 de julio de 2021</t>
   </si>
   <si>
@@ -272,9 +257,6 @@
     <t>Tabla</t>
   </si>
   <si>
-    <t>Educación,Municipal,PSU,Alumnos,Calidad Educación,Colegios Municipales</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -297,6 +279,819 @@
   </si>
   <si>
     <t>https://analytics.zoho.com/open-view/2395394000007718948</t>
+  </si>
+  <si>
+    <t>Territorio</t>
+  </si>
+  <si>
+    <t>Ingresos</t>
+  </si>
+  <si>
+    <t>Denuncias</t>
+  </si>
+  <si>
+    <t>Centro de Estudios y Análisis del Delito (CEAD) de la Subsecretaría de Prevención del Delito</t>
+  </si>
+  <si>
+    <t>Casos Activos COVID-19</t>
+  </si>
+  <si>
+    <t>Año 2019-2020</t>
+  </si>
+  <si>
+    <t>Ranking de Comunas según el número de alumnos por docentes en aula en colegios municipales, variación año 2019-2020.</t>
+  </si>
+  <si>
+    <t>Educación,Municipal,PSU,Alumnos,Calidad Educación,Colegios Municipales,Docentes</t>
+  </si>
+  <si>
+    <t>Casos Activos COVID-19 por 1 millón de habitantes</t>
+  </si>
+  <si>
+    <t>Agricultura</t>
+  </si>
+  <si>
+    <t>Agropecuario y Forestal</t>
+  </si>
+  <si>
+    <t>Toneladas de fruta exportadas</t>
+  </si>
+  <si>
+    <t>Exportaciones</t>
+  </si>
+  <si>
+    <t>Periodo 2012-2020</t>
+  </si>
+  <si>
+    <t>Toneladas</t>
+  </si>
+  <si>
+    <t>Servicio Nacional de Aduanas</t>
+  </si>
+  <si>
+    <t>Volumen de Exportaciones Frutícolas, periodo 2012-2020</t>
+  </si>
+  <si>
+    <t>La manzana es la fruta que más exporta Chile, con un volumen de 7.943.153 ton durante el periodo 2012 – 2020. En segundo lugar está la uva con un volumen de 7.410.265 ton.</t>
+  </si>
+  <si>
+    <t>Gráfico acumulativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fruta,toneladas,manzanas,uva,exportaciones </t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000005925456?ZOHO_CRITERIA=%22Trasposicion_4.1%22.%22Valor%22%20%3E%200.99</t>
+  </si>
+  <si>
+    <t>Exportaciones (ton) de fruta según país de destino</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Volumen de Exportaciones Frutícolas, periodo 2012-2020, por país</t>
+  </si>
+  <si>
+    <t>Chile exporta fruta a más de 80 países de todo el mundo. EEUU es el país que recibe más toneladas de fruta desde Chile , en segundo lugar está China. De Sudamérica Colombia es el país que más toneladas de fruta recibe.</t>
+  </si>
+  <si>
+    <t>Mapa Interactivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fruta,toneladas,exportaciones </t>
+  </si>
+  <si>
+    <t>Sentencia por delito de abuso sexual, región Metropolitana</t>
+  </si>
+  <si>
+    <t>Abuso sexual</t>
+  </si>
+  <si>
+    <t>Año 2013 - 2019</t>
+  </si>
+  <si>
+    <t>Número de Sentencias</t>
+  </si>
+  <si>
+    <t>Poder Judicial</t>
+  </si>
+  <si>
+    <t>Sentencias Dictadas por delitos de Abuso Sexual, en la región Metropolitana, para el periodo 2013 - 2019</t>
+  </si>
+  <si>
+    <t>El delito de Abuso Sexual que más sentencias acumula para el periodo comprendido entre los años 2013 – 2019, en la región Metropolitana, es el calificado como Abuso sexual con contacto de menor de 14 de años, el que supera las 34.000 sentencia cada año.</t>
+  </si>
+  <si>
+    <t>Gráfico</t>
+  </si>
+  <si>
+    <t>región,metropolitana,violencia,mujer,abuso, sexual, sentencia,menor,juzgado</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007173975?ZOHO_CRITERIA=%22Localiza%20CL%22.%22Codreg%22%3D13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación </t>
+  </si>
+  <si>
+    <t>Política y gobierno</t>
+  </si>
+  <si>
+    <t>Resultado de evaluación de programas e instituciones del servicio público</t>
+  </si>
+  <si>
+    <t>Evaluación de Programas</t>
+  </si>
+  <si>
+    <t>Periodo 1997-2020</t>
+  </si>
+  <si>
+    <t>Número de programas/instituciones</t>
+  </si>
+  <si>
+    <t>DIPRES (Dirección de Presupuestos Gobierno de Chile)</t>
+  </si>
+  <si>
+    <t>Número de programas/instituciones evaluadas según línea de evaluación (periodo 1997 -2020)</t>
+  </si>
+  <si>
+    <t>Dentro de la evaluación de programas/instituciones que realiza DIRES, la evaluación de Programas realizada al Ministerio de Educación, arroja un desempeño Insuficiente para los programas de Hogares de JUNAEB, para el año 2014, declarando que no hay información sobre la vigencia de éste.</t>
+  </si>
+  <si>
+    <t>programas, desempeño, gobierno, servicio,evaluación,instituciones,público,ministerio</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiMTE4NDhjNGUtMDkzNC00MThkLTg0ZDMtNjU0N2FiNzM1MWU4IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>Durante los años 1997 y 2020 se evaluaron 601 programas/instituciones del Servicio Público, bajo diferentes modalidades. De esta cifra, 101 programas fueron evaluados con Desempeño Insuficiente, 16 con Mal Desempeño, 17 con Reemplazo Integro o Finalización y 11 fueron evaluados con Buen Desempeño.</t>
+  </si>
+  <si>
+    <t>Forestal</t>
+  </si>
+  <si>
+    <t>Superficie de plantaciones afectadas por incendios</t>
+  </si>
+  <si>
+    <t>Incendios</t>
+  </si>
+  <si>
+    <t>Periodo Agosto 2010 – Junio 2020</t>
+  </si>
+  <si>
+    <t>Superficie</t>
+  </si>
+  <si>
+    <t>CONAF</t>
+  </si>
+  <si>
+    <t>Evolución de la Superficie de Plantaciones Forestales Afectadas por Incendios por Comuna</t>
+  </si>
+  <si>
+    <t>En la estación de verano del año 2017 la superficie de plantaciones afectadas por incendios aumentó considerablemente, superando las 100.000 ha, en la comuna de Cauquenes . A fines de junio del año 2020, las superficie de plantaciones afectadas por incendios supera las 466.655 ha, a lo largo de todo Chile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video de evolución </t>
+  </si>
+  <si>
+    <t>incendios,plantaciones,superficie,comuna</t>
+  </si>
+  <si>
+    <t>https://public.flourish.studio/visualisation/4642993/</t>
+  </si>
+  <si>
+    <t>Precios de hortalizas</t>
+  </si>
+  <si>
+    <t>Precios</t>
+  </si>
+  <si>
+    <t>Año 2021</t>
+  </si>
+  <si>
+    <t>Pesos (CLP/kg)</t>
+  </si>
+  <si>
+    <t>Oficina de Estudios y Políticas Agrarias (ODEPA)</t>
+  </si>
+  <si>
+    <t>Precios diarios de hortalizas en mercados mayoristas (año 2021)</t>
+  </si>
+  <si>
+    <t>PENDIENTE</t>
+  </si>
+  <si>
+    <t>hortaliza,precio,diario,pesos,mercado,mayorista</t>
+  </si>
+  <si>
+    <t>Precios de frutas</t>
+  </si>
+  <si>
+    <t>Precios diarios de fruta en mercados mayoristas (año 2021)</t>
+  </si>
+  <si>
+    <t>fruta,precio,diario,pesos,mercado,mayorista</t>
+  </si>
+  <si>
+    <t>Cultura</t>
+  </si>
+  <si>
+    <t>Arte y cultura</t>
+  </si>
+  <si>
+    <t>Titularidad de infraestructura cultural</t>
+  </si>
+  <si>
+    <t>Infraestructura</t>
+  </si>
+  <si>
+    <t>NO DEFINIDA</t>
+  </si>
+  <si>
+    <t>Número de espacios culturales</t>
+  </si>
+  <si>
+    <t>Observatorio Cultural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titularidad de los espacios culturales </t>
+  </si>
+  <si>
+    <t>espacio,cultural,titularidad,privada,publica</t>
+  </si>
+  <si>
+    <t>Delitos</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Variación anual de frecuencia (%) de delitos</t>
+  </si>
+  <si>
+    <t>DMCS</t>
+  </si>
+  <si>
+    <t>Periodo 2008-2021</t>
+  </si>
+  <si>
+    <t>Número de delitos</t>
+  </si>
+  <si>
+    <t>Evolución de Delitos de Mayor Connotación Social (2008-2021)</t>
+  </si>
+  <si>
+    <t>delitos,mayor,connotacion,social,variacion,anual,frecuencia</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiNzQyZDE0ZTgtNzcxOS00MzA5LTgxNzAtNTNlNGM5NWE5YTkwIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>Casos VIF presentados ante la fiscalía nacional</t>
+  </si>
+  <si>
+    <t>Violencia Intrafamiliar</t>
+  </si>
+  <si>
+    <t>Periodo 2019-2021</t>
+  </si>
+  <si>
+    <t>Número de Casos</t>
+  </si>
+  <si>
+    <t>Fiscalía Nacional</t>
+  </si>
+  <si>
+    <t>Evolución trimestral de Casos de Violencia Intrafamiliar presentados frente a la Fiscalía Nacional a nivel nacional</t>
+  </si>
+  <si>
+    <t>El segundo trimestre del año 2019 ha sido en el que se presenta una menor cantidad de casos frente a la Fiscalía Nacional, tanto para casos con víctimas hombres como mujeres, siendo 7.496 casos para víctimas hombres y 22.527 casos para víctimas mujeres</t>
+  </si>
+  <si>
+    <t>chile,nacional,violencia,intrafamiliar,fiscalía,nacional</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007782028</t>
+  </si>
+  <si>
+    <t>Casos VIF presentados ante la fiscalía nacional en la región metropolitana</t>
+  </si>
+  <si>
+    <t>Evolución trimestral de Casos de Violencia Intrafamiliar presentados frente a la Fiscalía Nacional a nivel regional</t>
+  </si>
+  <si>
+    <t>En la región metropolitana vemos que el tercer trimestre del año 2019 fue el trimestre con mayor cantidad de casos presentados ante la fiscalía nacional con 31.511 casos, siendo 22.883 con víctimas mujeres y 7.604 con víctimas hombres</t>
+  </si>
+  <si>
+    <t>metropolitana,regional,violencia,intrafamiliar,vif,casos,fiscalía</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007782059?ZOHO_CRITERIA=%22Trasposicion_27.4%22.%22Cod_Regi%C3%B3n%22%3D13</t>
+  </si>
+  <si>
+    <t>Mapa de Denuncias por VIF hacia la mujer</t>
+  </si>
+  <si>
+    <t>Periodo 2020-2021</t>
+  </si>
+  <si>
+    <t>CEAD (Centro de Estudios y Análisis del Delito de la Subsecretaría de Prevención del Delito</t>
+  </si>
+  <si>
+    <t>Cantidad de Denuncias por Violencia Intrafamiliar hacia la mujer acumuladas desde enero 2020 hasta marzo 2021</t>
+  </si>
+  <si>
+    <t>Mientras que la comuna de Puente Alto en la región metropolitana, es la comuna del país que posee mayor cantidad de denuncias por Violencia Intrafamiliar hacia la mujer con 3.199 denuncias, estando Puerto Montt en segundo lugar con 2.091 denuncias, hay comunas por Timaukel y Promavera, entre otras, que poseen 0 denuncias durante este período</t>
+  </si>
+  <si>
+    <t>Mapa</t>
+  </si>
+  <si>
+    <t>Puente alto,puerto montt,timaukel,primavera,comunal,VIF,violencia,intrafamiliar,denuncias,CEAD,mujer</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007782100</t>
+  </si>
+  <si>
+    <t>Tipo de envases utilizados en la producción de fruta a nivel nacional</t>
+  </si>
+  <si>
+    <t>Envases</t>
+  </si>
+  <si>
+    <t>Periodo 2018-2020</t>
+  </si>
+  <si>
+    <t>Proporción de tipo de envases utilizados en la producción de la fruta a nivel nacional</t>
+  </si>
+  <si>
+    <t>Vemos que el 40,1% de las toneladas de fruta producidas a nivel nacional son envasadas en plástico, siendo el Tretra-Brix el tipo de envasado menos utilizado con un 0,3%. Por su lado los materiales reutilizables como madera y vidrio suman entre ambos un 12,7% de la utilización</t>
+  </si>
+  <si>
+    <t>chile,nacional,fruta,envases,plástico,vidrio,madera,papel,cartón,metal</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007782157</t>
+  </si>
+  <si>
+    <t>Proporción de los destinos de la fruta producida en la comuna de Ovalle</t>
+  </si>
+  <si>
+    <t>Destinos</t>
+  </si>
+  <si>
+    <t>Ovalle</t>
+  </si>
+  <si>
+    <t>Proporción del destino de la fruta producida por la comuna de Ovalle en el período 2018-2020</t>
+  </si>
+  <si>
+    <t>El 80% de las 110.00 toneladas de fruta producidas en la comuna de Ovalle son clasificadas como "sin destino externo" lo que se traduce que son para consumo nacional, ya sea dentro de la misma comuna como para el consumo de otros mercados a nivel nacional. Mientras que el segundo mayor destino es Europa, con un 12,7% de la producción en toneladas dirigidas al viejo continente.</t>
+  </si>
+  <si>
+    <t>Ovalle,comunal,fruta,producción,tonelada,europa,interno,externo</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007782190?ZOHO_CRITERIA=%224.6%22.%22C%C3%B3digo_Comuna%22%3D4301</t>
+  </si>
+  <si>
+    <t>Superficie plantada de lechuga por región y año</t>
+  </si>
+  <si>
+    <t>Plantación</t>
+  </si>
+  <si>
+    <t>Periodo 2010-2019</t>
+  </si>
+  <si>
+    <t>Hectáreas</t>
+  </si>
+  <si>
+    <t>Superficie plantada (ha) de lechuga por región y evolución anual de esta</t>
+  </si>
+  <si>
+    <t>El año 2010 la región con mayor cantidad e hectáreas plantadas de lechuga, era la región metropolitana, con 3.364 hectáreas, al paso del tiempo, al ver el año 2019, la región con más hectáreas plantadas de lechuga es la de Coquimbo, con 1.964, dejando a la Metropolitana en segundo ligar con 1.929 hectáreas plantadas</t>
+  </si>
+  <si>
+    <t>regional,metropolitana,coquimbo,plantación,lechuga,hortalizashectáreas</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007782340?ZOHO_CRITERIA=%22Trasposicion_4.7%22.%22Id_categor%C3%ADa%22%3D100112033</t>
+  </si>
+  <si>
+    <t>Vivienda y Construcción</t>
+  </si>
+  <si>
+    <t>Estado de los PRDU por región</t>
+  </si>
+  <si>
+    <t>IPT</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Observatorio Urbano, MINVU</t>
+  </si>
+  <si>
+    <t>Estado del Plan Regional de Desarrollo Urbano por Región</t>
+  </si>
+  <si>
+    <t>Según los datos recopilados, sólo 4 de las 16 regiones de Chile poseen un PRDU vigente, las cuales sería Arica y Parinacota, Coquimbo, Antofagasta y O'Higgins, siendo Arica y Parinacota la que posee el PRDU más nuevo que data del año 2014</t>
+  </si>
+  <si>
+    <t>regional,coquimbo,antofagasta,o'higgins,arica,parinacota,plan,desarrollo,urbano,MINVU</t>
+  </si>
+  <si>
+    <t>Cambio Climático</t>
+  </si>
+  <si>
+    <t>Energía y Medio Ambiente</t>
+  </si>
+  <si>
+    <t>Generación de emisiones por procesos</t>
+  </si>
+  <si>
+    <t>GEI</t>
+  </si>
+  <si>
+    <t>Periodo 1990-2016</t>
+  </si>
+  <si>
+    <t>tCO2e</t>
+  </si>
+  <si>
+    <t>Sistema Nacional de Inventarios de Gases de Efecto Invernadero</t>
+  </si>
+  <si>
+    <t>Evolución de emisiones GEI por procesos</t>
+  </si>
+  <si>
+    <t>Gráfico/Flourish</t>
+  </si>
+  <si>
+    <t>GEI,emisiones,procesos,evolucion,</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiOTdiNzI1ZjktZWM4MS00ODNiLTg3YmMtZDg1NzQ4ZmQ3MTM2IiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9&amp;pageName=ReportSection</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Economía</t>
+  </si>
+  <si>
+    <t>Ventas por rubros</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Año 2019</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Servicio de Impuestos Internos (SII)</t>
+  </si>
+  <si>
+    <t>Ventas estimadas por rubro a nivel regional</t>
+  </si>
+  <si>
+    <t>empresas,ventas,estimadas,rubro,sector,economía</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiODk5YzA0NDItZThkZS00YTcxLThhYmUtNTI0ZDkzM2VlOGRmIiwidCI6IjhmYmFhNWJmLTJlY2MtNGRjOC1iNTZiLThmOTJlMzA3ZjA3NiIsImMiOjR9</t>
+  </si>
+  <si>
+    <t>Cantidad de Centros de la Mujer por región</t>
+  </si>
+  <si>
+    <t>Establecimientos de Apoyo</t>
+  </si>
+  <si>
+    <t>Número de Centros de la Mujer</t>
+  </si>
+  <si>
+    <t>SERNAMEG (Servicio Nacional de la Mujer)</t>
+  </si>
+  <si>
+    <t>Cantidad de Centros de la Mujer por Región en el año 2021</t>
+  </si>
+  <si>
+    <t>La región Metropolitana es la que cuenta con más Centros de la Mujer, llegando a 31 establecimientos. Le siguen las regiones de Biobío y Valparaíso, 14 y 12 centros respectivamente. La región que actualmente tiene menos centros es Arica y Parinacota, con solo 1.</t>
+  </si>
+  <si>
+    <t>Gráfico de Barras</t>
+  </si>
+  <si>
+    <t>Centros de la Mujer, Violencia, Género, Mujeres</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007777048</t>
+  </si>
+  <si>
+    <t>Mujeres Ingresadas en Centros de la Mujer</t>
+  </si>
+  <si>
+    <t>Periodo 2014-2019</t>
+  </si>
+  <si>
+    <t>Número de Mujeres Ingresadas</t>
+  </si>
+  <si>
+    <t>Cantidad de Mujeres Ingresadas en Centros de la Mujer en el periodo 2014-2019</t>
+  </si>
+  <si>
+    <t>La cantidad de mujeres ingresadas a Centros de la Mujer ha ido disminuyendo con el paso de los años, exceptuando el año 2017. Para el año 2019, los ingresos cayeron en un 19,8% en comparación al año 2014.</t>
+  </si>
+  <si>
+    <t>Centros de la Mujer, Violencia, Género, Mujeres, Ingresos</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007777075</t>
+  </si>
+  <si>
+    <t>Cantidad de Salidas desde Casas de Acogida</t>
+  </si>
+  <si>
+    <t>Número de Salidas</t>
+  </si>
+  <si>
+    <t>Cantidad de Salidas desde Casas de Acogida en el periodo 2014-2019</t>
+  </si>
+  <si>
+    <t>La cantidad de salidas desde Casas de Acogida ha ido disminuyendo con el paso de los años, exceptuando el año 2016. Para el año 2019, las salidas cayeron en un 6,6% en comparación al año 2018.</t>
+  </si>
+  <si>
+    <t>Casas de Acogida, Violencia, Género, Mujeres, Salidas</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007777114</t>
+  </si>
+  <si>
+    <t>Proporción de Salidas por Tipo desde Casas de Acogida</t>
+  </si>
+  <si>
+    <t>Proporción de Salidas por Tipo desde Casas de Acogida en el periodo 2014-2019</t>
+  </si>
+  <si>
+    <t>En el periodo 2014-2019, el tipo de salida más común desde las Casas de Acogida es el Egreso Efectivo de las mujeres, representando un 57,4% del total.</t>
+  </si>
+  <si>
+    <t>Gráfico de Torta</t>
+  </si>
+  <si>
+    <t>Casas de Acogida, Violencia, Género, Mujeres, Salidas, Egresos</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007777153</t>
+  </si>
+  <si>
+    <t>Atenciones de Salud por Violencia de Género</t>
+  </si>
+  <si>
+    <t>Periodo 2010-2016</t>
+  </si>
+  <si>
+    <t>Número de Atenciones Médicas</t>
+  </si>
+  <si>
+    <t>Departamento de Estadísticas e Información de la Salud</t>
+  </si>
+  <si>
+    <t>Evolución de las Atenciones de Salud por Violencia de Género para la Región Metropolitana</t>
+  </si>
+  <si>
+    <t>Evolución de la cantidad de Atenciones de Salud por Violencia de Género según Concepto de Urgencia para la Región Metropolitana. Gráfico creado en base a los datos publicados por el Departamento de Estadísticas e Información de la Salud (DEIS).</t>
+  </si>
+  <si>
+    <t>Salud, Violencia de Género, Mujer, Urgencia, Región, Metropolitana</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007782905</t>
+  </si>
+  <si>
+    <t>Exportaciones (USD) desde la región Metropolitana</t>
+  </si>
+  <si>
+    <t>Dólar (USD)</t>
+  </si>
+  <si>
+    <t>Evolución de las Exportaciones (USD) desde la Región Metropolitana</t>
+  </si>
+  <si>
+    <t>Evolución de las Exportaciones (USD) de diferentes frutas desde la Región Metropolitana. Gráfico realizado de acuerdo a los datos publicados por el Servicio Nacional de Aduanas.</t>
+  </si>
+  <si>
+    <t>Exportaciones, Dólar, Frutas, Metropolitana, Región, Origen</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007782936</t>
+  </si>
+  <si>
+    <t>Exportaciones (USD) por país de destino</t>
+  </si>
+  <si>
+    <t>Exportaciones (USD) acumuladas según país de destino</t>
+  </si>
+  <si>
+    <t>Exportaciones acumuladas 2012-2020 de todo el Territorio Nacional según País de Destino. Mapa realizado de acuerdo a los datos del Servicio Nacional de Aduanas.</t>
+  </si>
+  <si>
+    <t>Mapa Mundial por Países</t>
+  </si>
+  <si>
+    <t>Exportaciones, Dólar, Frutas, Chile, Nacional</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007801200</t>
+  </si>
+  <si>
+    <t>Energía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generación de ERNC </t>
+  </si>
+  <si>
+    <t>ERNC</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Comisión Nacional de Energía (CNE)</t>
+  </si>
+  <si>
+    <t>Capacidad Instalada de Generación de ERNC a nivel regional</t>
+  </si>
+  <si>
+    <t>energia,generacion,</t>
+  </si>
+  <si>
+    <t>Producción Agrícola (t) en la región de O'Higgins</t>
+  </si>
+  <si>
+    <t>Producción Agrícola</t>
+  </si>
+  <si>
+    <t>O'Higgins</t>
+  </si>
+  <si>
+    <t>Periodo 1979-2020</t>
+  </si>
+  <si>
+    <t>ODEPA (Oficina de Estudios y Políticas Agrarias)</t>
+  </si>
+  <si>
+    <t>Producción Agrícola (t) en la Región de O'Higgins en el periodo 1979-2020</t>
+  </si>
+  <si>
+    <t>La producción agrícola en la región de O'Higgins se mantuvo más o menos constante durante 35 temporadas, para luego repuntar entre los años 2012 y 2015, aumentando en un 489%. En el año 2020 se observó una caída de 2,8 veces la producción agrícola alcanzada en la temporada peak.</t>
+  </si>
+  <si>
+    <t>Cultivos, Producción, Agrícola, O'Higgins, Agricultura</t>
+  </si>
+  <si>
+    <t>Importaciones (t) por Fruta para frutas Tropicales y Subtropicales</t>
+  </si>
+  <si>
+    <t>Importaciones</t>
+  </si>
+  <si>
+    <t>Volumen de Importaciones (t) por Fruta en el periodo 2012-2020</t>
+  </si>
+  <si>
+    <t>Dentro del grupo de frutas Tropicales y Subtropicales, el plátano es el más importado en Chile. En el año 2020 se importaron 264.242 toneladas de esta fruta, siendo 1,4 veces más cantidad que en el 2012.</t>
+  </si>
+  <si>
+    <t>Importaciones, Fruta, Comercio, Tropical, Subtropical</t>
+  </si>
+  <si>
+    <t>Importaciones (t) por Procesamiento</t>
+  </si>
+  <si>
+    <t>Volumen de Importaciones (t) por Procesamiento en el periodo 2012-2020</t>
+  </si>
+  <si>
+    <t>Durante este periodo la mayor cantidad de fruta importada viene de forma fresca, alcanzando un total de 356.049 toneladas importadas en el año 2020. Por el contrario, Chile no importa mucha cantidad de frutos secos en comparación al resto de los tipos de procesamiento.</t>
+  </si>
+  <si>
+    <t>Importaciones, Fruta, Procesamiento, Comercio</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007777311</t>
+  </si>
+  <si>
+    <t>Salud - Mujer</t>
+  </si>
+  <si>
+    <t>Casos de Cáncer de Cuello Uterino</t>
+  </si>
+  <si>
+    <t>Cáncer</t>
+  </si>
+  <si>
+    <t>Periodo 2012-2018</t>
+  </si>
+  <si>
+    <t>Número de Casos de Cáncer de Cuello Uterino</t>
+  </si>
+  <si>
+    <t>Departamento de Estadística e Información de la Salud</t>
+  </si>
+  <si>
+    <t>Evolución de Casos de Cáncer de Cuello Uterino en Chile 2012-2018</t>
+  </si>
+  <si>
+    <t>Evolución de Casos de Cáncer de Cuello Uterino 2012-2018 de acuerdo a la Población en Control en el Programa de Cáncer de Cuello Uterino en Territorio Nacional diagnosticados a través del Examen Papanicolaou. Este gráfico se creó en base a los datos publicados por el Departamento de Estadísticas e Información de la Salud (DEIS).</t>
+  </si>
+  <si>
+    <t>Cáncer, Útero, Salud, PAP, Papanicolaou, Chile</t>
+  </si>
+  <si>
+    <t>Casos de VIH/SIDA</t>
+  </si>
+  <si>
+    <t>Enfermedades de Transmisión Sexual</t>
+  </si>
+  <si>
+    <t>Número de Casos de VIH/SIDA</t>
+  </si>
+  <si>
+    <t>Evolución de Casos de VIH/SIDA</t>
+  </si>
+  <si>
+    <t>Evolución de Casos de VIH/SIDA a Nivel Nacional 2012-2018 de acuerdo a la Población en Control en el Programa de VIH/SIDA. Gráfico creado a partir de datos publicados por el Departamento de Estadísticas e Información de la Salud.</t>
+  </si>
+  <si>
+    <t>VIH, SIDA, Transmisión, Sexual, Chile</t>
+  </si>
+  <si>
+    <t>Cantidad de comunas por grado de vulnerabilidad al cambio climático</t>
+  </si>
+  <si>
+    <t>Vulnerabilidad</t>
+  </si>
+  <si>
+    <t>Número de Comunas</t>
+  </si>
+  <si>
+    <t>NO DEFINIDO</t>
+  </si>
+  <si>
+    <t>Índice de Vulnerabilidad al Cambio Climático (Número de Comunas por Región)</t>
+  </si>
+  <si>
+    <t>La Región de O'Higgins es la que posee mayor cantidad de comunas (26) con un índice alto de vulnerabilidad al cambio climático, seguida de las regiones de Valparaíso (25) y Coquimbo (13). Esta última es la que posee mayor proporción de comunas (86,6%) con vulnerabilidad alta con respecto al total de comunas de la región.</t>
+  </si>
+  <si>
+    <t>cambio,climatico,vulnerabilidad,indice,cantidad,comunas</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007806050</t>
+  </si>
+  <si>
+    <t>Comunas con alta vulnerabilidad al cambio climático</t>
+  </si>
+  <si>
+    <t>Mapa Comunas con ALTA Vulnerabilidad al Cambio Climático</t>
+  </si>
+  <si>
+    <t>cambio,climatico,vulnerabilidad,indice,comunas,alta</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007806315</t>
+  </si>
+  <si>
+    <t>Regiones con mayor vulnerablidad al cambio climático</t>
+  </si>
+  <si>
+    <t>Ranking de las regiones con mayor Vulnerabilidad al Cambio Climático (Número de Comunas por Región)</t>
+  </si>
+  <si>
+    <t>cambio,climatico,vulnerabilidad,indice,comunas,alta,moderada</t>
+  </si>
+  <si>
+    <t>https://analytics.zoho.com/open-view/2395394000007806463</t>
+  </si>
+  <si>
+    <t>Glaciares</t>
+  </si>
+  <si>
+    <t>Monitoreo de glaciares</t>
+  </si>
+  <si>
+    <t>Monitoreo</t>
+  </si>
+  <si>
+    <t>Superficie de glaciares</t>
+  </si>
+  <si>
+    <t>glaciares, cambio, climatico, monitoreo, cambio, superficie</t>
   </si>
 </sst>
 </file>
@@ -382,6 +1177,20 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -416,20 +1225,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -444,8 +1239,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A62FD72-31C9-49E4-9088-4998C022961B}" name="Tabla1" displayName="Tabla1" ref="A1:P8" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:P8" xr:uid="{0A62FD72-31C9-49E4-9088-4998C022961B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0A62FD72-31C9-49E4-9088-4998C022961B}" name="Tabla1" displayName="Tabla1" ref="A1:P44" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:P44" xr:uid="{0A62FD72-31C9-49E4-9088-4998C022961B}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{625C23FA-972A-4576-AC12-CB680070D11C}" name="id"/>
     <tableColumn id="2" xr3:uid="{B983C317-1D87-4AA7-BB5C-013F8CB0738E}" name="coleccion"/>
@@ -789,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,7 +1652,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -871,99 +1666,97 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>82</v>
+      <c r="P2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>+A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>39</v>
       </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>41</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>42</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>43</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>44</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
         <v>45</v>
       </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>47</v>
-      </c>
       <c r="P3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A7" si="0">+A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -973,99 +1766,97 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" t="s">
         <v>49</v>
       </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>50</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>51</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>52</v>
       </c>
-      <c r="M4" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
-      </c>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" t="s">
         <v>65</v>
       </c>
-      <c r="E5" t="s">
+      <c r="M5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
         <v>66</v>
       </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" t="s">
-        <v>69</v>
-      </c>
-      <c r="L5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M5" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" t="s">
-        <v>87</v>
+      <c r="P5" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1075,156 +1866,1884 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
         <v>56</v>
       </c>
-      <c r="E6" t="s">
+      <c r="L6" t="s">
         <v>57</v>
       </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="M6" t="s">
         <v>58</v>
       </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="N6" t="s">
         <v>59</v>
       </c>
-      <c r="J6" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O6" t="s">
-        <v>64</v>
-      </c>
       <c r="P6" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
+      </c>
+      <c r="P7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" ref="A8" si="1">+A7+1</f>
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="s">
+        <v>115</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>117</v>
+      </c>
+      <c r="P11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="s">
+        <v>127</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>128</v>
+      </c>
+      <c r="P12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="s">
+        <v>130</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" t="s">
+        <v>128</v>
+      </c>
+      <c r="P13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="s">
+        <v>138</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" t="s">
+        <v>140</v>
+      </c>
+      <c r="P14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="s">
+        <v>148</v>
+      </c>
+      <c r="N15" t="s">
+        <v>116</v>
+      </c>
+      <c r="O15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s">
+        <v>144</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" t="s">
+        <v>148</v>
+      </c>
+      <c r="N16" t="s">
+        <v>116</v>
+      </c>
+      <c r="O16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="s">
+        <v>148</v>
+      </c>
+      <c r="N17" t="s">
+        <v>116</v>
+      </c>
+      <c r="O17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" t="s">
+        <v>148</v>
+      </c>
+      <c r="N18" t="s">
+        <v>116</v>
+      </c>
+      <c r="O18" t="s">
+        <v>169</v>
+      </c>
+      <c r="P18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M19" t="s">
+        <v>177</v>
+      </c>
+      <c r="N19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O19" t="s">
+        <v>178</v>
+      </c>
+      <c r="P19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" t="s">
+        <v>182</v>
+      </c>
+      <c r="N20" t="s">
+        <v>116</v>
+      </c>
+      <c r="O20" t="s">
+        <v>183</v>
+      </c>
+      <c r="P20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" t="s">
+        <v>188</v>
+      </c>
+      <c r="M21" t="s">
+        <v>189</v>
+      </c>
+      <c r="N21" t="s">
+        <v>190</v>
+      </c>
+      <c r="O21" t="s">
+        <v>191</v>
+      </c>
+      <c r="P21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" t="s">
+        <v>146</v>
+      </c>
+      <c r="L22" t="s">
+        <v>196</v>
+      </c>
+      <c r="M22" t="s">
+        <v>197</v>
+      </c>
+      <c r="N22" t="s">
+        <v>116</v>
+      </c>
+      <c r="O22" t="s">
+        <v>198</v>
+      </c>
+      <c r="P22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" t="s">
+        <v>202</v>
+      </c>
+      <c r="I23" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" t="s">
+        <v>146</v>
+      </c>
+      <c r="L23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" t="s">
+        <v>204</v>
+      </c>
+      <c r="N23" t="s">
+        <v>116</v>
+      </c>
+      <c r="O23" t="s">
+        <v>205</v>
+      </c>
+      <c r="P23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" t="s">
+        <v>146</v>
+      </c>
+      <c r="L24" t="s">
+        <v>211</v>
+      </c>
+      <c r="M24" t="s">
+        <v>212</v>
+      </c>
+      <c r="N24" t="s">
+        <v>116</v>
+      </c>
+      <c r="O24" t="s">
+        <v>213</v>
+      </c>
+      <c r="P24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" t="s">
+        <v>216</v>
+      </c>
+      <c r="E25" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" t="s">
+        <v>221</v>
+      </c>
+      <c r="N25" t="s">
+        <v>190</v>
+      </c>
+      <c r="O25" t="s">
+        <v>222</v>
+      </c>
+      <c r="P25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" t="s">
+        <v>225</v>
+      </c>
+      <c r="E26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J26" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26" t="s">
+        <v>229</v>
+      </c>
+      <c r="L26" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" t="s">
+        <v>148</v>
+      </c>
+      <c r="N26" t="s">
+        <v>231</v>
+      </c>
+      <c r="O26" t="s">
+        <v>232</v>
+      </c>
+      <c r="P26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" t="s">
+        <v>236</v>
+      </c>
+      <c r="E27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27" t="s">
+        <v>239</v>
+      </c>
+      <c r="K27" t="s">
+        <v>240</v>
+      </c>
+      <c r="L27" t="s">
+        <v>241</v>
+      </c>
+      <c r="M27" t="s">
+        <v>148</v>
+      </c>
+      <c r="N27" t="s">
+        <v>116</v>
+      </c>
+      <c r="O27" t="s">
+        <v>242</v>
+      </c>
+      <c r="P27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>244</v>
+      </c>
+      <c r="E28" t="s">
+        <v>245</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J28" t="s">
+        <v>246</v>
+      </c>
+      <c r="K28" t="s">
+        <v>247</v>
+      </c>
+      <c r="L28" t="s">
+        <v>248</v>
+      </c>
+      <c r="M28" t="s">
+        <v>249</v>
+      </c>
+      <c r="N28" t="s">
+        <v>250</v>
+      </c>
+      <c r="O28" t="s">
+        <v>251</v>
+      </c>
+      <c r="P28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="G8" t="s">
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" t="s">
+        <v>245</v>
+      </c>
+      <c r="F29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s">
+        <v>254</v>
+      </c>
+      <c r="J29" t="s">
+        <v>255</v>
+      </c>
+      <c r="K29" t="s">
+        <v>247</v>
+      </c>
+      <c r="L29" t="s">
+        <v>256</v>
+      </c>
+      <c r="M29" t="s">
+        <v>257</v>
+      </c>
+      <c r="N29" t="s">
+        <v>34</v>
+      </c>
+      <c r="O29" t="s">
+        <v>258</v>
+      </c>
+      <c r="P29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E30" t="s">
+        <v>245</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>261</v>
+      </c>
+      <c r="K30" t="s">
+        <v>247</v>
+      </c>
+      <c r="L30" t="s">
+        <v>262</v>
+      </c>
+      <c r="M30" t="s">
+        <v>263</v>
+      </c>
+      <c r="N30" t="s">
+        <v>34</v>
+      </c>
+      <c r="O30" t="s">
+        <v>264</v>
+      </c>
+      <c r="P30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>266</v>
+      </c>
+      <c r="E31" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s">
+        <v>254</v>
+      </c>
+      <c r="J31" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" t="s">
+        <v>247</v>
+      </c>
+      <c r="L31" t="s">
+        <v>267</v>
+      </c>
+      <c r="M31" t="s">
+        <v>268</v>
+      </c>
+      <c r="N31" t="s">
+        <v>269</v>
+      </c>
+      <c r="O31" t="s">
+        <v>270</v>
+      </c>
+      <c r="P31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>272</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" t="s">
+        <v>274</v>
+      </c>
+      <c r="K32" t="s">
+        <v>275</v>
+      </c>
+      <c r="L32" t="s">
+        <v>276</v>
+      </c>
+      <c r="M32" t="s">
+        <v>277</v>
+      </c>
+      <c r="N32" t="s">
+        <v>116</v>
+      </c>
+      <c r="O32" t="s">
+        <v>278</v>
+      </c>
+      <c r="P32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>95</v>
+      </c>
+      <c r="J33" t="s">
+        <v>281</v>
+      </c>
+      <c r="K33" t="s">
+        <v>97</v>
+      </c>
+      <c r="L33" t="s">
+        <v>282</v>
+      </c>
+      <c r="M33" t="s">
+        <v>283</v>
+      </c>
+      <c r="N33" t="s">
+        <v>34</v>
+      </c>
+      <c r="O33" t="s">
+        <v>284</v>
+      </c>
+      <c r="P33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>286</v>
+      </c>
+      <c r="E34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J34" t="s">
+        <v>281</v>
+      </c>
+      <c r="K34" t="s">
+        <v>97</v>
+      </c>
+      <c r="L34" t="s">
+        <v>287</v>
+      </c>
+      <c r="M34" t="s">
+        <v>288</v>
+      </c>
+      <c r="N34" t="s">
+        <v>289</v>
+      </c>
+      <c r="O34" t="s">
+        <v>290</v>
+      </c>
+      <c r="P34" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>292</v>
+      </c>
+      <c r="C35" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" t="s">
+        <v>293</v>
+      </c>
+      <c r="E35" t="s">
+        <v>294</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" t="s">
+        <v>157</v>
+      </c>
+      <c r="J35" t="s">
+        <v>295</v>
+      </c>
+      <c r="K35" t="s">
+        <v>296</v>
+      </c>
+      <c r="L35" t="s">
+        <v>297</v>
+      </c>
+      <c r="M35" t="s">
+        <v>148</v>
+      </c>
+      <c r="N35" t="s">
+        <v>116</v>
+      </c>
+      <c r="O35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" t="s">
+        <v>299</v>
+      </c>
+      <c r="E36" t="s">
+        <v>300</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>301</v>
+      </c>
+      <c r="I36" t="s">
+        <v>302</v>
+      </c>
+      <c r="J36" t="s">
+        <v>96</v>
+      </c>
+      <c r="K36" t="s">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s">
+        <v>304</v>
+      </c>
+      <c r="M36" t="s">
+        <v>305</v>
+      </c>
+      <c r="N36" t="s">
+        <v>34</v>
+      </c>
+      <c r="O36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>307</v>
+      </c>
+      <c r="E37" t="s">
+        <v>308</v>
+      </c>
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="s">
+        <v>95</v>
+      </c>
+      <c r="J37" t="s">
+        <v>96</v>
+      </c>
+      <c r="K37" t="s">
+        <v>97</v>
+      </c>
+      <c r="L37" t="s">
+        <v>309</v>
+      </c>
+      <c r="M37" t="s">
+        <v>310</v>
+      </c>
+      <c r="N37" t="s">
+        <v>34</v>
+      </c>
+      <c r="O37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>312</v>
+      </c>
+      <c r="E38" t="s">
+        <v>308</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" t="s">
+        <v>96</v>
+      </c>
+      <c r="K38" t="s">
+        <v>97</v>
+      </c>
+      <c r="L38" t="s">
+        <v>313</v>
+      </c>
+      <c r="M38" t="s">
+        <v>314</v>
+      </c>
+      <c r="N38" t="s">
+        <v>34</v>
+      </c>
+      <c r="O38" t="s">
+        <v>315</v>
+      </c>
+      <c r="P38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>317</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>318</v>
+      </c>
+      <c r="E39" t="s">
+        <v>319</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" t="s">
+        <v>320</v>
+      </c>
+      <c r="J39" t="s">
+        <v>321</v>
+      </c>
+      <c r="K39" t="s">
+        <v>322</v>
+      </c>
+      <c r="L39" t="s">
+        <v>323</v>
+      </c>
+      <c r="M39" t="s">
+        <v>324</v>
+      </c>
+      <c r="N39" t="s">
+        <v>34</v>
+      </c>
+      <c r="O39" t="s">
+        <v>325</v>
+      </c>
+      <c r="P39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>317</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>326</v>
+      </c>
+      <c r="E40" t="s">
+        <v>327</v>
+      </c>
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" t="s">
+        <v>320</v>
+      </c>
+      <c r="J40" t="s">
+        <v>328</v>
+      </c>
+      <c r="K40" t="s">
+        <v>322</v>
+      </c>
+      <c r="L40" t="s">
+        <v>329</v>
+      </c>
+      <c r="M40" t="s">
+        <v>330</v>
+      </c>
+      <c r="N40" t="s">
+        <v>34</v>
+      </c>
+      <c r="O40" t="s">
+        <v>331</v>
+      </c>
+      <c r="P40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="H8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" t="s">
-        <v>85</v>
+      <c r="B41" t="s">
+        <v>223</v>
+      </c>
+      <c r="C41" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" t="s">
+        <v>332</v>
+      </c>
+      <c r="E41" t="s">
+        <v>333</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" t="s">
+        <v>157</v>
+      </c>
+      <c r="J41" t="s">
+        <v>334</v>
+      </c>
+      <c r="K41" t="s">
+        <v>335</v>
+      </c>
+      <c r="L41" t="s">
+        <v>336</v>
+      </c>
+      <c r="M41" t="s">
+        <v>337</v>
+      </c>
+      <c r="N41" t="s">
+        <v>116</v>
+      </c>
+      <c r="O41" t="s">
+        <v>338</v>
+      </c>
+      <c r="P41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" t="s">
+        <v>340</v>
+      </c>
+      <c r="E42" t="s">
+        <v>333</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" t="s">
+        <v>157</v>
+      </c>
+      <c r="L42" t="s">
+        <v>341</v>
+      </c>
+      <c r="N42" t="s">
+        <v>107</v>
+      </c>
+      <c r="O42" t="s">
+        <v>342</v>
+      </c>
+      <c r="P42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" t="s">
+        <v>344</v>
+      </c>
+      <c r="E43" t="s">
+        <v>333</v>
+      </c>
+      <c r="F43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" t="s">
+        <v>157</v>
+      </c>
+      <c r="J43" t="s">
+        <v>334</v>
+      </c>
+      <c r="K43" t="s">
+        <v>335</v>
+      </c>
+      <c r="L43" t="s">
+        <v>345</v>
+      </c>
+      <c r="N43" t="s">
+        <v>116</v>
+      </c>
+      <c r="O43" t="s">
+        <v>346</v>
+      </c>
+      <c r="P43" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>348</v>
+      </c>
+      <c r="C44" t="s">
+        <v>224</v>
+      </c>
+      <c r="D44" t="s">
+        <v>349</v>
+      </c>
+      <c r="E44" t="s">
+        <v>350</v>
+      </c>
+      <c r="F44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s">
+        <v>210</v>
+      </c>
+      <c r="L44" t="s">
+        <v>351</v>
+      </c>
+      <c r="O44" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P7" r:id="rId1" xr:uid="{74451529-CAE5-441A-8BE6-3A894F9F258E}"/>
-    <hyperlink ref="P2" r:id="rId2" xr:uid="{C1611DB2-3C5B-4F7D-B722-F89AEFEBBC3E}"/>
+    <hyperlink ref="P6" r:id="rId1" display="https://analytics.zoho.com/open-view/2395394000007756457" xr:uid="{74451529-CAE5-441A-8BE6-3A894F9F258E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
